--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
@@ -541,9 +541,6 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t xml:space="preserve">157769456 y http://www.muyinteresante.es/ciencia/preguntas-respuestas/icomo-realizo-mendel-sus-experimentos </t>
-  </si>
-  <si>
     <t>Diagrama de una célula vegetal</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
   <si>
     <t>Cuadro de 5x5 con ilustraciones de simillas amarillas y verdes</t>
   </si>
+  <si>
+    <t>157769456 y https://commons.wikimedia.org/wiki/File:Gregor_Mendel_Monk.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +656,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -826,6 +826,20 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1376,7 +1390,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1607,6 +1621,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,7 +1706,22 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2641,8 +2671,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2680,14 +2710,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="F2" s="88" t="s">
+      <c r="D2" s="97"/>
+      <c r="F2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
@@ -2697,14 +2727,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="98">
         <v>8</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="F3" s="90">
+      <c r="D3" s="99"/>
+      <c r="F3" s="91">
         <v>42131</v>
       </c>
-      <c r="G3" s="91"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
@@ -2714,10 +2744,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>55</v>
@@ -2735,10 +2765,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2787,12 +2817,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2914,44 +2944,44 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+    <row r="12" spans="1:16" s="125" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="str">
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="27" t="str">
+      <c r="B12" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="123" t="str">
         <f t="shared" si="1"/>
         <v>CN_08_01_CO_REC10_IMG03_small</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="123" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="123" t="str">
         <f t="shared" si="2"/>
         <v>CN_08_01_CO_REC10_IMG03_zoom</v>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="123" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="124" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2990,19 +3020,19 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="119" t="s">
-        <v>179</v>
+      <c r="B14" s="88" t="s">
+        <v>178</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3031,10 +3061,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3073,7 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3072,10 +3102,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -3113,10 +3143,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="84" t="s">
         <v>163</v>
-      </c>
-      <c r="K16" s="84" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -3154,7 +3184,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -3193,13 +3223,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="185.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="171" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="80">
         <v>248376691</v>
@@ -3231,18 +3261,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="84" t="s">
         <v>167</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3271,13 +3301,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="78">
         <v>160388525</v>
@@ -3309,15 +3339,15 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K21" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="87">
         <v>93013351</v>
@@ -3349,16 +3379,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3387,18 +3417,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3427,18 +3457,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3467,10 +3497,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5652,25 +5682,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5678,11 +5708,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>18</v>
@@ -5733,11 +5763,11 @@
       <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>22</v>
@@ -5782,12 +5812,12 @@
       <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="101" t="str">
+      <c r="D7" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
@@ -5881,14 +5911,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
@@ -5921,12 +5951,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -5966,12 +5996,12 @@
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="109" t="str">
+      <c r="D17" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -5987,12 +6017,12 @@
       <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="101" t="str">
+      <c r="D18" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -6384,41 +6414,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="52" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8895" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="26200" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="189">
   <si>
     <t>Fecha:</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Fotografía de Mendel sobre imagen de arvejas</t>
   </si>
   <si>
-    <t xml:space="preserve">Son dos imágenes. La fotografía de Mendel se debe pone sobre las imagen de las arvejas.  </t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -647,6 +644,29 @@
   </si>
   <si>
     <t>157769456 y https://commons.wikimedia.org/wiki/File:Gregor_Mendel_Monk.jpg</t>
+  </si>
+  <si>
+    <t>Son dos imágenes. La fotografía de Mendel se debe pone sobre las imagen de las arvejas.   Foto Mendel imagen de dominio público</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">141162586    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ver comentarios</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1093,11 +1113,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1106,7 +1126,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1114,17 +1134,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1134,7 +1154,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1142,12 +1162,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,18 +1176,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,11 +1217,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1211,10 +1231,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1224,7 +1244,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1298,16 +1318,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,28 +1335,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1389,8 +1409,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1602,9 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1622,6 +1640,22 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,24 +1740,8 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1775,6 +1793,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1897,7 +1916,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -1946,7 +1965,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -2042,7 +2061,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -2060,15 +2079,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2101,15 +2120,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2142,15 +2161,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2185,13 +2204,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2224,15 +2243,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2265,15 +2284,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2306,15 +2325,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2667,33 +2686,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="40.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2705,49 +2724,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="F2" s="89" t="s">
+      <c r="D2" s="102"/>
+      <c r="F2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="103">
         <v>8</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="F3" s="91">
+      <c r="D3" s="104"/>
+      <c r="F3" s="96">
         <v>42131</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>55</v>
@@ -2760,15 +2779,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2780,7 +2799,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2793,7 +2812,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="35" t="s">
         <v>40</v>
@@ -2811,18 +2830,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2831,7 +2850,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2905,7 +2924,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2944,48 +2963,48 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="125" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="str">
+    <row r="12" spans="1:16" s="93" customFormat="1" ht="40">
+      <c r="A12" s="88" t="str">
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="122" t="str">
+      <c r="B12" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="90" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="123" t="s">
+      <c r="D12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="123" t="str">
+      <c r="F12" s="91" t="str">
         <f t="shared" si="1"/>
         <v>CN_08_01_CO_REC10_IMG03_small</v>
       </c>
-      <c r="G12" s="123" t="str">
+      <c r="G12" s="91" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="123" t="str">
+      <c r="H12" s="91" t="str">
         <f t="shared" si="2"/>
         <v>CN_08_01_CO_REC10_IMG03_zoom</v>
       </c>
-      <c r="I12" s="123" t="str">
+      <c r="I12" s="91" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="J12" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K12" s="92" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -2998,7 +3017,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>151</v>
@@ -3020,19 +3039,19 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>178</v>
+      <c r="B14" s="87" t="s">
+        <v>177</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3060,27 +3079,27 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="81" t="s">
-        <v>159</v>
+      <c r="B15" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>151</v>
@@ -3101,14 +3120,14 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="K15" s="82" t="s">
+      <c r="J15" s="81" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="K15" s="81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3142,14 +3161,14 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="27">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -3183,12 +3202,12 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="82" t="s">
-        <v>164</v>
+      <c r="J17" s="81" t="s">
+        <v>163</v>
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="27">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3222,14 +3241,14 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="82" t="s">
-        <v>165</v>
+      <c r="J18" s="81" t="s">
+        <v>164</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="171" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
-        <v>169</v>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="171">
+      <c r="A19" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="B19" s="80">
         <v>248376691</v>
@@ -3261,18 +3280,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="84" t="s">
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="27">
+      <c r="A20" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="85" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>168</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3301,13 +3320,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
-        <v>171</v>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1">
+      <c r="A21" s="84" t="s">
+        <v>170</v>
       </c>
       <c r="B21" s="78">
         <v>160388525</v>
@@ -3317,7 +3336,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>151</v>
@@ -3338,18 +3357,18 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="27">
+      <c r="A22" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="87">
+      <c r="B22" s="86">
         <v>93013351</v>
       </c>
       <c r="C22" s="27" t="str">
@@ -3379,23 +3398,23 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>159</v>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A23" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>158</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>151</v>
@@ -3417,25 +3436,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="19" t="s">
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1">
+      <c r="A24" s="84" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>159</v>
+      <c r="B24" s="86" t="s">
+        <v>158</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>151</v>
@@ -3457,25 +3476,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1">
+      <c r="A25" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>159</v>
+      <c r="B25" s="86" t="s">
+        <v>158</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>151</v>
@@ -3497,13 +3516,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A26" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3531,7 +3550,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A27" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3559,7 +3578,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3587,7 +3606,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3615,7 +3634,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3643,7 +3662,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1">
       <c r="A31" s="13"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -3668,7 +3687,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1">
       <c r="A32" s="13"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3693,7 +3712,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -3718,7 +3737,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -3743,7 +3762,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1">
       <c r="A35" s="13"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -3768,7 +3787,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1">
       <c r="A36" s="13"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -3793,7 +3812,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="13"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3818,7 +3837,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1">
       <c r="A38" s="13"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -3843,7 +3862,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1">
       <c r="A39" s="13"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -3868,7 +3887,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1">
       <c r="A40" s="13"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -3893,7 +3912,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1">
       <c r="A41" s="13"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3918,7 +3937,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1">
       <c r="A42" s="13"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -3943,7 +3962,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3968,7 +3987,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1">
       <c r="A44" s="13"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -3993,7 +4012,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1">
       <c r="A45" s="13"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -4018,7 +4037,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1">
       <c r="A46" s="13"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -4043,7 +4062,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1">
       <c r="A47" s="13"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -4068,7 +4087,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1">
       <c r="A48" s="13"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -4093,7 +4112,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1">
       <c r="A49" s="13"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -4118,7 +4137,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1">
       <c r="A50" s="13"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -4143,7 +4162,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1">
       <c r="A51" s="13"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -4168,7 +4187,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1">
       <c r="A52" s="13"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -4193,7 +4212,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -4218,7 +4237,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1">
       <c r="A54" s="13"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -4243,7 +4262,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1">
       <c r="A55" s="13"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4268,7 +4287,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1">
       <c r="A56" s="13"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -4293,7 +4312,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1">
       <c r="A57" s="13"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -4318,7 +4337,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1">
       <c r="A58" s="13"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -4343,7 +4362,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -4368,7 +4387,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1">
       <c r="A60" s="13"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -4393,7 +4412,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1">
       <c r="A61" s="13"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -4418,7 +4437,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -4443,7 +4462,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4468,7 +4487,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4493,7 +4512,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -4518,7 +4537,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -4543,7 +4562,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -4568,7 +4587,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4593,7 +4612,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -4618,7 +4637,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -4643,7 +4662,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -4668,7 +4687,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -4693,7 +4712,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -4718,7 +4737,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -4743,7 +4762,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -4768,7 +4787,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -4793,7 +4812,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -4818,7 +4837,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -4843,7 +4862,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4868,7 +4887,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -4893,7 +4912,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4918,7 +4937,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -4943,7 +4962,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -4968,7 +4987,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -4993,7 +5012,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -5018,7 +5037,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -5043,7 +5062,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -5068,7 +5087,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -5093,7 +5112,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -5118,7 +5137,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -5143,7 +5162,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -5168,7 +5187,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -5193,7 +5212,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -5218,7 +5237,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -5243,7 +5262,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -5268,7 +5287,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -5293,7 +5312,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -5318,7 +5337,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -5343,7 +5362,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -5368,7 +5387,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -5393,7 +5412,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -5418,7 +5437,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5443,7 +5462,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5468,7 +5487,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5493,7 +5512,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5518,7 +5537,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5543,7 +5562,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5568,7 +5587,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5651,8 +5670,8 @@
     <hyperlink ref="B21" r:id="rId8" display="http://www.shutterstock.com/pic-160388525/stock-vector-meiosis-cell-division-vector-diagram.html?src=50NnJgZ0trTClhTtFPK5hg-1-6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId9"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5663,56 +5682,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11" style="33"/>
-    <col min="3" max="3" width="13.875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="33" customWidth="1"/>
-    <col min="5" max="7" width="11" style="33"/>
+    <col min="1" max="1" width="72.1640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="33"/>
+    <col min="3" max="3" width="13.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="33" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="33"/>
     <col min="8" max="11" width="11" style="33" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="33"/>
+    <col min="12" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A1" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>18</v>
@@ -5727,7 +5746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="41" t="s">
         <v>44</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="44" t="s">
         <v>45</v>
       </c>
@@ -5763,11 +5782,11 @@
       <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="116" t="str">
+      <c r="D5" s="121" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="122"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>22</v>
@@ -5782,7 +5801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
@@ -5804,7 +5823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
@@ -5812,12 +5831,12 @@
       <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="102" t="str">
+      <c r="D7" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
       <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
@@ -5831,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="44" t="s">
         <v>53</v>
       </c>
@@ -5850,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="45" t="s">
         <v>36</v>
       </c>
@@ -5888,7 +5907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="33" t="s">
         <v>32</v>
       </c>
@@ -5899,7 +5918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="33" t="s">
         <v>37</v>
       </c>
@@ -5910,15 +5929,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
@@ -5929,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="44"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -5946,17 +5965,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -5964,7 +5983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="44" t="s">
         <v>47</v>
       </c>
@@ -5988,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="41" t="s">
         <v>44</v>
       </c>
@@ -5996,12 +6015,12 @@
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="110" t="str">
+      <c r="D17" s="115" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -6009,7 +6028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="44" t="s">
         <v>48</v>
       </c>
@@ -6017,12 +6036,12 @@
       <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="102" t="str">
+      <c r="D18" s="107" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -6030,7 +6049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
@@ -6049,7 +6068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
@@ -6071,7 +6090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="33" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6088,122 +6107,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="33">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="33">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="33">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="33">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="33">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="33">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="33">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="33">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="33">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="33">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="33">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="33">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="33">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="33">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="33">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="33">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="33">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="33">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="33">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="33" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6222,169 +6241,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6397,58 +6429,58 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="33"/>
-    <col min="5" max="5" width="11.75" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="33"/>
+    <col min="5" max="5" width="11.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="33" customWidth="1"/>
     <col min="7" max="7" width="11" style="33" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="33" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="33" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="33"/>
+    <col min="12" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
       <c r="H2" s="52" t="s">
         <v>65</v>
       </c>
@@ -6459,7 +6491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="54" customFormat="1">
       <c r="A3" s="53" t="s">
         <v>69</v>
       </c>
@@ -6483,7 +6515,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="54" customFormat="1">
       <c r="A4" s="55" t="s">
         <v>57</v>
       </c>
@@ -6511,7 +6543,7 @@
       </c>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="54" customFormat="1">
       <c r="A5" s="56" t="s">
         <v>77</v>
       </c>
@@ -6539,7 +6571,7 @@
       </c>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="54" customFormat="1">
       <c r="A6" s="55" t="s">
         <v>58</v>
       </c>
@@ -6571,7 +6603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5">
       <c r="A7" s="55" t="s">
         <v>80</v>
       </c>
@@ -6599,7 +6631,7 @@
       </c>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5">
       <c r="A8" s="55" t="s">
         <v>82</v>
       </c>
@@ -6627,7 +6659,7 @@
       </c>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="54" customFormat="1">
       <c r="A9" s="55" t="s">
         <v>84</v>
       </c>
@@ -6655,7 +6687,7 @@
       </c>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="54" customFormat="1">
       <c r="A10" s="55" t="s">
         <v>86</v>
       </c>
@@ -6681,7 +6713,7 @@
       </c>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5">
       <c r="A11" s="55" t="s">
         <v>89</v>
       </c>
@@ -6709,7 +6741,7 @@
       </c>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="54" customFormat="1">
       <c r="A12" s="55" t="s">
         <v>91</v>
       </c>
@@ -6737,7 +6769,7 @@
       </c>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="58" t="s">
         <v>93</v>
       </c>
@@ -6764,7 +6796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="58" t="s">
         <v>97</v>
       </c>
@@ -6788,7 +6820,7 @@
       </c>
       <c r="J14" s="58"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="58" t="s">
         <v>99</v>
       </c>
@@ -6815,7 +6847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="60" t="s">
         <v>103</v>
       </c>
@@ -6844,7 +6876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="55" t="s">
         <v>106</v>
       </c>
@@ -6873,12 +6905,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="65" t="s">
         <v>113</v>
       </c>
@@ -6891,7 +6923,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="68" t="s">
         <v>114</v>
       </c>
@@ -6904,7 +6936,7 @@
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="68" t="s">
         <v>115</v>
       </c>
@@ -6917,7 +6949,7 @@
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="68" t="s">
         <v>116</v>
       </c>
@@ -6930,7 +6962,7 @@
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="68" t="s">
         <v>117</v>
       </c>
@@ -6943,7 +6975,7 @@
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="68" t="s">
         <v>118</v>
       </c>
@@ -6969,5 +7001,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="26200" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15480" windowHeight="8895" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="188">
   <si>
     <t>Fecha:</t>
   </si>
@@ -535,6 +535,9 @@
     <t>Fotografía de Mendel sobre imagen de arvejas</t>
   </si>
   <si>
+    <t xml:space="preserve">Son dos imágenes. La fotografía de Mendel se debe pone sobre las imagen de las arvejas.  </t>
+  </si>
+  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -644,29 +647,6 @@
   </si>
   <si>
     <t>157769456 y https://commons.wikimedia.org/wiki/File:Gregor_Mendel_Monk.jpg</t>
-  </si>
-  <si>
-    <t>Son dos imágenes. La fotografía de Mendel se debe pone sobre las imagen de las arvejas.   Foto Mendel imagen de dominio público</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">141162586    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ver comentarios</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1113,11 +1093,11 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1126,7 +1106,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1134,17 +1114,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1154,7 +1134,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1162,12 +1142,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,18 +1156,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,11 +1197,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1231,10 +1211,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1244,7 +1224,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1318,16 +1298,16 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1335,28 +1315,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1409,9 +1389,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1623,6 +1602,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1640,22 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,8 +1706,24 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1793,7 +1775,6 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1916,7 +1897,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -1965,7 +1946,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -2061,7 +2042,7 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -2079,15 +2060,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2120,15 +2101,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2161,15 +2142,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2204,13 +2185,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2243,15 +2224,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>825500</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2284,15 +2265,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2325,15 +2306,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2686,33 +2667,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="40.6640625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="40.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2724,49 +2705,49 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="F2" s="94" t="s">
+      <c r="D2" s="97"/>
+      <c r="F2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="98">
         <v>8</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="F3" s="96">
+      <c r="D3" s="99"/>
+      <c r="F3" s="91">
         <v>42131</v>
       </c>
-      <c r="G3" s="97"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>55</v>
@@ -2779,15 +2760,15 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2799,7 +2780,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2812,7 +2793,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="35" t="s">
         <v>40</v>
@@ -2830,18 +2811,18 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2850,7 +2831,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
@@ -2885,7 +2866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="27">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2924,7 +2905,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2963,48 +2944,48 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="93" customFormat="1" ht="40">
-      <c r="A12" s="88" t="str">
+    <row r="12" spans="1:16" s="125" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="str">
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="90" t="str">
+      <c r="B12" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="91" t="s">
+      <c r="D12" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="91" t="str">
+      <c r="F12" s="123" t="str">
         <f t="shared" si="1"/>
         <v>CN_08_01_CO_REC10_IMG03_small</v>
       </c>
-      <c r="G12" s="91" t="str">
+      <c r="G12" s="123" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="91" t="str">
+      <c r="H12" s="123" t="str">
         <f t="shared" si="2"/>
         <v>CN_08_01_CO_REC10_IMG03_zoom</v>
       </c>
-      <c r="I12" s="91" t="str">
+      <c r="I12" s="123" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="92" t="s">
+      <c r="J12" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="27">
+      <c r="K12" s="124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
@@ -3017,7 +2998,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>151</v>
@@ -3039,19 +3020,19 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13" s="79" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="87" t="s">
-        <v>177</v>
+      <c r="B14" s="88" t="s">
+        <v>178</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3079,27 +3060,27 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="86" t="s">
-        <v>178</v>
+      <c r="J14" s="87" t="s">
+        <v>179</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>188</v>
+      <c r="B15" s="81" t="s">
+        <v>159</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>151</v>
@@ -3120,14 +3101,14 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="81" t="s">
+      <c r="J15" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5">
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -3161,14 +3142,14 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="83" t="s">
+      <c r="J16" s="83" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="27">
+      <c r="K16" s="84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -3202,12 +3183,12 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="81" t="s">
-        <v>163</v>
+      <c r="J17" s="82" t="s">
+        <v>164</v>
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="27">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3241,14 +3222,14 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="81" t="s">
-        <v>164</v>
+      <c r="J18" s="82" t="s">
+        <v>165</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="171">
-      <c r="A19" s="84" t="s">
-        <v>168</v>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="171" x14ac:dyDescent="0.3">
+      <c r="A19" s="85" t="s">
+        <v>169</v>
       </c>
       <c r="B19" s="80">
         <v>248376691</v>
@@ -3280,18 +3261,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="83" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="27">
-      <c r="A20" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="85" t="s">
+      <c r="K19" s="84" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>168</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3320,13 +3301,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
         <v>171</v>
-      </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1">
-      <c r="A21" s="84" t="s">
-        <v>170</v>
       </c>
       <c r="B21" s="78">
         <v>160388525</v>
@@ -3336,7 +3317,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>151</v>
@@ -3357,18 +3338,18 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="81" t="s">
+      <c r="J21" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="K21" s="81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="27">
-      <c r="A22" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="86">
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="87">
         <v>93013351</v>
       </c>
       <c r="C22" s="27" t="str">
@@ -3398,23 +3379,23 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1">
-      <c r="A23" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>158</v>
+      <c r="B23" s="87" t="s">
+        <v>159</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>151</v>
@@ -3436,25 +3417,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1">
-      <c r="A24" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>158</v>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>159</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>151</v>
@@ -3476,25 +3457,25 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1">
-      <c r="A25" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>159</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>151</v>
@@ -3516,13 +3497,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3550,7 +3531,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3578,7 +3559,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3606,7 +3587,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3634,7 +3615,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3662,7 +3643,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -3687,7 +3668,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3712,7 +3693,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -3737,7 +3718,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -3762,7 +3743,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -3787,7 +3768,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -3812,7 +3793,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -3837,7 +3818,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -3862,7 +3843,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -3887,7 +3868,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -3912,7 +3893,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3937,7 +3918,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -3962,7 +3943,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3987,7 +3968,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -4012,7 +3993,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -4037,7 +4018,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -4062,7 +4043,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -4087,7 +4068,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
@@ -4112,7 +4093,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -4137,7 +4118,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -4162,7 +4143,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -4187,7 +4168,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -4212,7 +4193,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -4237,7 +4218,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -4262,7 +4243,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -4287,7 +4268,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -4312,7 +4293,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -4337,7 +4318,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -4362,7 +4343,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -4387,7 +4368,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -4412,7 +4393,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -4437,7 +4418,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -4462,7 +4443,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4487,7 +4468,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4512,7 +4493,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -4537,7 +4518,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -4562,7 +4543,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -4587,7 +4568,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -4612,7 +4593,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -4637,7 +4618,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -4662,7 +4643,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -4687,7 +4668,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -4712,7 +4693,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -4737,7 +4718,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -4762,7 +4743,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -4787,7 +4768,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -4812,7 +4793,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -4837,7 +4818,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -4862,7 +4843,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -4887,7 +4868,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -4912,7 +4893,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -4937,7 +4918,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -4962,7 +4943,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -4987,7 +4968,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -5012,7 +4993,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -5037,7 +5018,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -5062,7 +5043,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -5087,7 +5068,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -5112,7 +5093,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -5137,7 +5118,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -5162,7 +5143,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -5187,7 +5168,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -5212,7 +5193,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -5237,7 +5218,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -5262,7 +5243,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -5287,7 +5268,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -5312,7 +5293,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -5337,7 +5318,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -5362,7 +5343,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -5387,7 +5368,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -5412,7 +5393,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -5437,7 +5418,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5462,7 +5443,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5487,7 +5468,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5512,7 +5493,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5537,7 +5518,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -5562,7 +5543,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -5587,7 +5568,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
+    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -5670,8 +5651,8 @@
     <hyperlink ref="B21" r:id="rId8" display="http://www.shutterstock.com/pic-160388525/stock-vector-meiosis-cell-division-vector-diagram.html?src=50NnJgZ0trTClhTtFPK5hg-1-6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
+  <drawing r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5682,56 +5663,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="33"/>
-    <col min="3" max="3" width="13.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="33" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="72.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="11" style="33"/>
+    <col min="3" max="3" width="13.875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="33" customWidth="1"/>
+    <col min="5" max="7" width="11" style="33"/>
     <col min="8" max="11" width="11" style="33" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>18</v>
@@ -5746,7 +5727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>44</v>
       </c>
@@ -5774,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>45</v>
       </c>
@@ -5782,11 +5763,11 @@
       <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="121" t="str">
+      <c r="D5" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="122"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>22</v>
@@ -5801,7 +5782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
@@ -5823,7 +5804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
@@ -5831,12 +5812,12 @@
       <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="107" t="str">
+      <c r="D7" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
@@ -5850,7 +5831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>53</v>
       </c>
@@ -5869,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
@@ -5888,7 +5869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>36</v>
       </c>
@@ -5907,7 +5888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="33" t="s">
         <v>32</v>
       </c>
@@ -5918,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="33" t="s">
         <v>37</v>
       </c>
@@ -5929,15 +5910,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="109" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
@@ -5948,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -5965,17 +5946,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -5983,7 +5964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.25" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>47</v>
       </c>
@@ -6007,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>44</v>
       </c>
@@ -6015,12 +5996,12 @@
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="115" t="str">
+      <c r="D17" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -6028,7 +6009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>48</v>
       </c>
@@ -6036,12 +6017,12 @@
       <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="107" t="str">
+      <c r="D18" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -6049,7 +6030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
@@ -6068,7 +6049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
@@ -6090,7 +6071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="33" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6107,122 +6088,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="33">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="33">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="33">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="33">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="33">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="33">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="33">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="33">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="33">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="33">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="33">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="33">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="33">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="33">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="33">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="33">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="33">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="33">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="33">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="33">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="33" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6241,182 +6222,169 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>825500</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6429,58 +6397,58 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="33"/>
-    <col min="5" max="5" width="11.6640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="33"/>
+    <col min="5" max="5" width="11.75" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
     <col min="7" max="7" width="11" style="33" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="33" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="33" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="52" t="s">
         <v>65</v>
       </c>
@@ -6491,7 +6459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="54" customFormat="1">
+    <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>69</v>
       </c>
@@ -6515,7 +6483,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:11" s="54" customFormat="1">
+    <row r="4" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>57</v>
       </c>
@@ -6543,7 +6511,7 @@
       </c>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:11" s="54" customFormat="1">
+    <row r="5" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>77</v>
       </c>
@@ -6571,7 +6539,7 @@
       </c>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" s="54" customFormat="1">
+    <row r="6" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
         <v>58</v>
       </c>
@@ -6603,7 +6571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>80</v>
       </c>
@@ -6631,7 +6599,7 @@
       </c>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
         <v>82</v>
       </c>
@@ -6659,7 +6627,7 @@
       </c>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:11" s="54" customFormat="1">
+    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>84</v>
       </c>
@@ -6687,7 +6655,7 @@
       </c>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:11" s="54" customFormat="1">
+    <row r="10" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>86</v>
       </c>
@@ -6713,7 +6681,7 @@
       </c>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>89</v>
       </c>
@@ -6741,7 +6709,7 @@
       </c>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:11" s="54" customFormat="1">
+    <row r="12" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>91</v>
       </c>
@@ -6769,7 +6737,7 @@
       </c>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>93</v>
       </c>
@@ -6796,7 +6764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>97</v>
       </c>
@@ -6820,7 +6788,7 @@
       </c>
       <c r="J14" s="58"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>99</v>
       </c>
@@ -6847,7 +6815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>103</v>
       </c>
@@ -6876,7 +6844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>106</v>
       </c>
@@ -6905,12 +6873,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>113</v>
       </c>
@@ -6923,7 +6891,7 @@
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>114</v>
       </c>
@@ -6936,7 +6904,7 @@
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>115</v>
       </c>
@@ -6949,7 +6917,7 @@
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>116</v>
       </c>
@@ -6962,7 +6930,7 @@
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>117</v>
       </c>
@@ -6975,7 +6943,7 @@
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>118</v>
       </c>
@@ -7001,10 +6969,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_CO.xlsx
@@ -508,9 +508,6 @@
     <t>Miguel Aljure</t>
   </si>
   <si>
-    <t>CN_08_01_CO_REC10</t>
-  </si>
-  <si>
     <t>Fundamentos de genética</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   </si>
   <si>
     <t>157769456 y https://commons.wikimedia.org/wiki/File:Gregor_Mendel_Monk.jpg</t>
+  </si>
+  <si>
+    <t>CN_08_06_CO</t>
   </si>
 </sst>
 </file>
@@ -1622,6 +1622,22 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,22 +1721,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="51" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2672,7 +2672,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2710,14 +2710,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="F2" s="89" t="s">
+      <c r="D2" s="103"/>
+      <c r="F2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="90"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
@@ -2727,14 +2727,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="104">
         <v>8</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="F3" s="91">
+      <c r="D3" s="105"/>
+      <c r="F3" s="97">
         <v>42131</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="98"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
@@ -2744,16 +2744,16 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="99"/>
+      <c r="C4" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="105"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -2765,10 +2765,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2799,7 +2799,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>39</v>
@@ -2817,12 +2817,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2872,21 +2872,21 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_CO_REC10_IMG01_small</v>
+        <v>CN_08_06_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2894,14 +2894,14 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_CO_REC10_IMG01_zoom</v>
+        <v>CN_08_06_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2918,14 +2918,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_CO_REC10_IMG02_small</v>
+        <v>CN_08_06_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2933,56 +2933,56 @@
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_CO_REC10_IMG02_zoom</v>
+        <v>CN_08_06_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="125" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="str">
+    <row r="12" spans="1:16" s="94" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="str">
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="122" t="str">
+      <c r="B12" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="91" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="123" t="str">
+      <c r="D12" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="92" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG03_small</v>
-      </c>
-      <c r="G12" s="123" t="str">
+        <v>CN_08_06_CO_IMG03_small</v>
+      </c>
+      <c r="G12" s="92" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="123" t="str">
+      <c r="H12" s="92" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG03_zoom</v>
-      </c>
-      <c r="I12" s="123" t="str">
+        <v>CN_08_06_CO_IMG03_zoom</v>
+      </c>
+      <c r="I12" s="92" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="J12" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="93" t="s">
         <v>154</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -2998,14 +2998,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG04_small</v>
+        <v>CN_08_06_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3013,17 +3013,17 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG04_zoom</v>
+        <v>CN_08_06_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="79" t="s">
         <v>157</v>
-      </c>
-      <c r="K13" s="79" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -3032,21 +3032,21 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG05_small</v>
+        <v>CN_08_06_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG05_zoom</v>
+        <v>CN_08_06_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,21 +3073,21 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG06_small</v>
+        <v>CN_08_06_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3095,17 +3095,17 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG06_zoom</v>
+        <v>CN_08_06_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -3121,14 +3121,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG07_small</v>
+        <v>CN_08_06_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG07_zoom</v>
+        <v>CN_08_06_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="84" t="s">
         <v>162</v>
-      </c>
-      <c r="K16" s="84" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -3162,14 +3162,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG08_small</v>
+        <v>CN_08_06_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3177,14 +3177,14 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG08_zoom</v>
+        <v>CN_08_06_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -3201,14 +3201,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG09_small</v>
+        <v>CN_08_06_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3216,20 +3216,20 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG09_zoom</v>
+        <v>CN_08_06_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="171" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="80">
         <v>248376691</v>
@@ -3239,14 +3239,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG10_small</v>
+        <v>CN_08_06_CO_IMG10_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3254,39 +3254,39 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG10_zoom</v>
+        <v>CN_08_06_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="84" t="s">
         <v>166</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG11_small</v>
+        <v>CN_08_06_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3294,20 +3294,20 @@
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG11_zoom</v>
+        <v>CN_08_06_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="78">
         <v>160388525</v>
@@ -3317,14 +3317,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG12_small</v>
+        <v>CN_08_06_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3332,22 +3332,22 @@
       </c>
       <c r="H21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG12_zoom</v>
+        <v>CN_08_06_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="87">
         <v>93013351</v>
@@ -3357,14 +3357,14 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG13_small</v>
+        <v>CN_08_06_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3372,37 +3372,37 @@
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG13_zoom</v>
+        <v>CN_08_06_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG14_small</v>
+        <v>CN_08_06_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3410,39 +3410,39 @@
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG14_zoom</v>
+        <v>CN_08_06_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG15_small</v>
+        <v>CN_08_06_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3450,39 +3450,39 @@
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG15_zoom</v>
+        <v>CN_08_06_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC10_IMG16_small</v>
+        <v>CN_08_06_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -3490,17 +3490,17 @@
       </c>
       <c r="H25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC10_IMG16_zoom</v>
+        <v>CN_08_06_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5682,25 +5682,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5708,11 +5708,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>18</v>
@@ -5763,11 +5763,11 @@
       <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="116" t="str">
+      <c r="D5" s="122" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>22</v>
@@ -5812,12 +5812,12 @@
       <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="102" t="str">
+      <c r="D7" s="108" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
       <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
@@ -5911,14 +5911,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
       <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
@@ -5951,12 +5951,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -5996,12 +5996,12 @@
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="110" t="str">
+      <c r="D17" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -6017,12 +6017,12 @@
       <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="102" t="str">
+      <c r="D18" s="108" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -6414,41 +6414,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="52" t="s">
         <v>65</v>
       </c>
